--- a/Mifos Automation Excels/Loan Product/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -125,9 +125,6 @@
     <t>870C</t>
   </si>
   <si>
-    <t>870RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>verifyloanproduct</t>
   </si>
   <si>
@@ -215,12 +212,6 @@
     <t>includeincustomerloancounter</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -228,6 +219,15 @@
   </si>
   <si>
     <t>Per month</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -326,6 +326,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +633,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -647,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,12 +670,12 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -682,15 +683,15 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -698,7 +699,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -734,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -875,7 +876,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="13">
         <v>10000</v>
@@ -883,7 +884,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
@@ -891,98 +892,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1005,10 +1008,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/870-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -56,9 +56,6 @@
     <t>repaymentstrategy</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>interestcalculationperiod</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -670,12 +670,12 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -683,15 +683,15 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
         <v>12</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,37 +774,37 @@
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>13</v>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>7</v>
@@ -812,39 +812,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="16">
         <v>42005</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>7</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="13">
         <v>1</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="13">
         <v>10000</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
@@ -892,98 +892,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1008,10 +1008,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
